--- a/bgce-timetracker/Test.xlsx
+++ b/bgce-timetracker/Test.xlsx
@@ -12,7 +12,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+  <si>
+    <t xml:space="preserve">Employee ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -35,6 +44,15 @@
     <t xml:space="preserve">PTO Earned</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/6/2018 12:00:00 AM</t>
   </si>
   <si>
@@ -44,12 +62,12 @@
     <t xml:space="preserve">11/6/2018 6:38:59 PM</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0125</t>
+  </si>
+  <si>
     <t xml:space="preserve">paid</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0125</t>
-  </si>
-  <si>
     <t xml:space="preserve">11/6/2018 6:38:47 PM</t>
   </si>
   <si>
@@ -74,34 +92,160 @@
     <t xml:space="preserve">11/6/2018 7:06:19 PM</t>
   </si>
   <si>
+    <t xml:space="preserve">0.008611</t>
+  </si>
+  <si>
     <t xml:space="preserve">staff</t>
   </si>
   <si>
-    <t xml:space="preserve">0.008611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
+    <t xml:space="preserve">11/12/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2018 12:05:57 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2018 6:27:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:11:42 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:11:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:12:33 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 11:16:01 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.057777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 2:20:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:20:06 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.000833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:21:07 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:21:09 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 2:22:20 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/27/2018 9:22:22 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.000555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5383426795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:06:33 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:06:59 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0005553718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:08:22 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:11:21 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.049722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0038236218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:11:24 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:20:03 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0110863654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:20:07 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:25:26 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.088611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0068141859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:25:31 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:29:42 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.069722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0053616218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/28/2018 10:30:11 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/1/2018 1:31:39 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.024444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8465797436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/2/2018 12:00:00 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/2/2018 6:21:07 PM</t>
   </si>
 </sst>
 </file>
@@ -173,101 +317,516 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" t="s">
-        <v>29</v>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
